--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>12.72626133333333</v>
+        <v>0.01309533333333333</v>
       </c>
       <c r="H2">
-        <v>38.178784</v>
+        <v>0.039286</v>
       </c>
       <c r="I2">
-        <v>0.08664518826379554</v>
+        <v>9.760639145116089E-05</v>
       </c>
       <c r="J2">
-        <v>0.08664518826379553</v>
+        <v>9.760639145116087E-05</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7479136666666667</v>
+        <v>0.010413</v>
       </c>
       <c r="N2">
-        <v>2.243741</v>
+        <v>0.031239</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01373154928834539</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01373154928834539</v>
       </c>
       <c r="Q2">
-        <v>9.518144776771557</v>
+        <v>0.000136361706</v>
       </c>
       <c r="R2">
-        <v>85.663302990944</v>
+        <v>0.001227255354</v>
       </c>
       <c r="S2">
-        <v>0.08664518826379554</v>
+        <v>1.34028697506915E-06</v>
       </c>
       <c r="T2">
-        <v>0.08664518826379553</v>
+        <v>1.34028697506915E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>132.5150096666667</v>
+        <v>0.01309533333333333</v>
       </c>
       <c r="H3">
-        <v>397.545029</v>
+        <v>0.039286</v>
       </c>
       <c r="I3">
-        <v>0.9022121783931373</v>
+        <v>9.760639145116089E-05</v>
       </c>
       <c r="J3">
-        <v>0.9022121783931372</v>
+        <v>9.760639145116087E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>2.243741</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9862684507116546</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9862684507116547</v>
       </c>
       <c r="Q3">
-        <v>99.10978676816543</v>
+        <v>0.009794178769555557</v>
       </c>
       <c r="R3">
-        <v>891.9880809134889</v>
+        <v>0.088147608926</v>
       </c>
       <c r="S3">
-        <v>0.9022121783931373</v>
+        <v>9.626610447609173E-05</v>
       </c>
       <c r="T3">
-        <v>0.9022121783931372</v>
+        <v>9.626610447609173E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,232 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>132.5150096666667</v>
+      </c>
+      <c r="H4">
+        <v>397.545029</v>
+      </c>
+      <c r="I4">
+        <v>0.9877039077543427</v>
+      </c>
+      <c r="J4">
+        <v>0.9877039077543425</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.010413</v>
+      </c>
+      <c r="N4">
+        <v>0.031239</v>
+      </c>
+      <c r="O4">
+        <v>0.01373154928834539</v>
+      </c>
+      <c r="P4">
+        <v>0.01373154928834539</v>
+      </c>
+      <c r="Q4">
+        <v>1.379878795659</v>
+      </c>
+      <c r="R4">
+        <v>12.418909160931</v>
+      </c>
+      <c r="S4">
+        <v>0.01356270489162011</v>
+      </c>
+      <c r="T4">
+        <v>0.01356270489162011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>132.5150096666667</v>
+      </c>
+      <c r="H5">
+        <v>397.545029</v>
+      </c>
+      <c r="I5">
+        <v>0.9877039077543427</v>
+      </c>
+      <c r="J5">
+        <v>0.9877039077543425</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7479136666666667</v>
+      </c>
+      <c r="N5">
+        <v>2.243741</v>
+      </c>
+      <c r="O5">
+        <v>0.9862684507116546</v>
+      </c>
+      <c r="P5">
+        <v>0.9862684507116547</v>
+      </c>
+      <c r="Q5">
+        <v>99.10978676816543</v>
+      </c>
+      <c r="R5">
+        <v>891.9880809134889</v>
+      </c>
+      <c r="S5">
+        <v>0.9741412028627225</v>
+      </c>
+      <c r="T5">
+        <v>0.9741412028627224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1.636606333333334</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>4.909819000000001</v>
       </c>
-      <c r="I4">
-        <v>0.0111426333430672</v>
-      </c>
-      <c r="J4">
-        <v>0.0111426333430672</v>
-      </c>
-      <c r="K4">
+      <c r="I6">
+        <v>0.01219848585420627</v>
+      </c>
+      <c r="J6">
+        <v>0.01219848585420626</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.010413</v>
+      </c>
+      <c r="N6">
+        <v>0.031239</v>
+      </c>
+      <c r="O6">
+        <v>0.01373154928834539</v>
+      </c>
+      <c r="P6">
+        <v>0.01373154928834539</v>
+      </c>
+      <c r="Q6">
+        <v>0.017041981749</v>
+      </c>
+      <c r="R6">
+        <v>0.153377835741</v>
+      </c>
+      <c r="S6">
+        <v>0.0001675041097502174</v>
+      </c>
+      <c r="T6">
+        <v>0.0001675041097502174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.636606333333334</v>
+      </c>
+      <c r="H7">
+        <v>4.909819000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.01219848585420627</v>
+      </c>
+      <c r="J7">
+        <v>0.01219848585420626</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0.7479136666666667</v>
       </c>
-      <c r="N4">
+      <c r="N7">
         <v>2.243741</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="O7">
+        <v>0.9862684507116546</v>
+      </c>
+      <c r="P7">
+        <v>0.9862684507116547</v>
+      </c>
+      <c r="Q7">
         <v>1.224040243653223</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>11.016362192879</v>
       </c>
-      <c r="S4">
-        <v>0.0111426333430672</v>
-      </c>
-      <c r="T4">
-        <v>0.0111426333430672</v>
+      <c r="S7">
+        <v>0.01203098174445605</v>
+      </c>
+      <c r="T7">
+        <v>0.01203098174445605</v>
       </c>
     </row>
   </sheetData>
